--- a/DataFiles/A11_Data.xlsx
+++ b/DataFiles/A11_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\toGit\WPF\AteWiki\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCA46E1-59DB-481B-B0B8-8B2ACE0AEF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D79D9F6-E8D5-471E-A5EC-B008C0A39260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="7" xr2:uid="{67FDD206-A0BB-4878-B0DF-FAAFC93AC40A}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3682" uniqueCount="1428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3653" uniqueCount="1428">
   <si>
     <t>线之种子</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5179,10 +5179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>问号地点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>奖励</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5674,6 +5670,10 @@
   </si>
   <si>
     <t>出现位置5</t>
+  </si>
+  <si>
+    <t>地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6346,7 +6346,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6614,37 +6614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6656,26 +6626,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7007,22 +7004,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="91" t="s">
         <v>1245</v>
       </c>
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="91" t="s">
         <v>1246</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="91" t="s">
         <v>711</v>
       </c>
-      <c r="F1" s="102" t="s">
+      <c r="F1" s="92" t="s">
         <v>712</v>
       </c>
       <c r="G1" s="32" t="s">
@@ -7037,20 +7034,20 @@
       <c r="J1" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="103" t="s">
-        <v>1397</v>
-      </c>
-      <c r="L1" s="103" t="s">
+      <c r="K1" s="93" t="s">
+        <v>1396</v>
+      </c>
+      <c r="L1" s="93" t="s">
+        <v>1398</v>
+      </c>
+      <c r="M1" s="93" t="s">
         <v>1399</v>
       </c>
-      <c r="M1" s="103" t="s">
+      <c r="N1" s="93" t="s">
         <v>1400</v>
       </c>
-      <c r="N1" s="103" t="s">
+      <c r="O1" s="93" t="s">
         <v>1401</v>
-      </c>
-      <c r="O1" s="103" t="s">
-        <v>1402</v>
       </c>
       <c r="P1" s="31" t="s">
         <v>50</v>
@@ -14640,7 +14637,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="103" t="s">
         <v>619</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -14651,7 +14648,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="90"/>
+      <c r="A4" s="104"/>
       <c r="B4" s="15" t="s">
         <v>678</v>
       </c>
@@ -14660,7 +14657,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="91"/>
+      <c r="A5" s="105"/>
       <c r="B5" s="14" t="s">
         <v>679</v>
       </c>
@@ -14669,7 +14666,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="103" t="s">
         <v>620</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -14680,7 +14677,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="90"/>
+      <c r="A7" s="104"/>
       <c r="B7" s="15" t="s">
         <v>680</v>
       </c>
@@ -14689,7 +14686,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="91"/>
+      <c r="A8" s="105"/>
       <c r="B8" s="14" t="s">
         <v>681</v>
       </c>
@@ -14698,7 +14695,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="103" t="s">
         <v>621</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -14709,7 +14706,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="90"/>
+      <c r="A10" s="104"/>
       <c r="B10" s="15" t="s">
         <v>683</v>
       </c>
@@ -14718,7 +14715,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="91"/>
+      <c r="A11" s="105"/>
       <c r="B11" s="14" t="s">
         <v>684</v>
       </c>
@@ -14727,7 +14724,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="103" t="s">
         <v>632</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -14738,7 +14735,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="90"/>
+      <c r="A13" s="104"/>
       <c r="B13" s="15" t="s">
         <v>678</v>
       </c>
@@ -14747,7 +14744,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="91"/>
+      <c r="A14" s="105"/>
       <c r="B14" s="14" t="s">
         <v>679</v>
       </c>
@@ -14756,7 +14753,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="103" t="s">
         <v>633</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -14767,7 +14764,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="90"/>
+      <c r="A16" s="104"/>
       <c r="B16" s="15" t="s">
         <v>683</v>
       </c>
@@ -14776,7 +14773,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="91"/>
+      <c r="A17" s="105"/>
       <c r="B17" s="14" t="s">
         <v>684</v>
       </c>
@@ -14785,7 +14782,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="103" t="s">
         <v>636</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -14796,7 +14793,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="90"/>
+      <c r="A19" s="104"/>
       <c r="B19" s="15" t="s">
         <v>687</v>
       </c>
@@ -14805,7 +14802,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="91"/>
+      <c r="A20" s="105"/>
       <c r="B20" s="14" t="s">
         <v>688</v>
       </c>
@@ -14836,7 +14833,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="103" t="s">
         <v>624</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -14847,7 +14844,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="90"/>
+      <c r="A24" s="104"/>
       <c r="B24" s="15" t="s">
         <v>687</v>
       </c>
@@ -14856,7 +14853,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="91"/>
+      <c r="A25" s="105"/>
       <c r="B25" s="14" t="s">
         <v>688</v>
       </c>
@@ -14865,7 +14862,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="89" t="s">
+      <c r="A26" s="103" t="s">
         <v>626</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -14876,7 +14873,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="90"/>
+      <c r="A27" s="104"/>
       <c r="B27" s="15" t="s">
         <v>691</v>
       </c>
@@ -14885,7 +14882,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="91"/>
+      <c r="A28" s="105"/>
       <c r="B28" s="14" t="s">
         <v>692</v>
       </c>
@@ -14894,7 +14891,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="89" t="s">
+      <c r="A29" s="103" t="s">
         <v>693</v>
       </c>
       <c r="B29" s="13" t="s">
@@ -14905,7 +14902,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="91"/>
+      <c r="A30" s="105"/>
       <c r="B30" s="14" t="s">
         <v>695</v>
       </c>
@@ -14914,7 +14911,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="103" t="s">
         <v>630</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -14925,7 +14922,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="91"/>
+      <c r="A32" s="105"/>
       <c r="B32" s="14" t="s">
         <v>696</v>
       </c>
@@ -14940,8 +14937,6 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A12:A14"/>
@@ -14950,6 +14945,8 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14977,39 +14974,39 @@
       <c r="A1" s="16" t="s">
         <v>1239</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="106" t="s">
         <v>1244</v>
       </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="95"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="108"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="94" t="s">
         <v>98</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -19432,26 +19429,26 @@
       <c r="C1" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E1" t="s">
         <v>1403</v>
       </c>
-      <c r="E1" s="105" t="s">
+      <c r="F1" t="s">
         <v>1404</v>
       </c>
-      <c r="F1" s="105" t="s">
+      <c r="G1" t="s">
         <v>1405</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="H1" t="s">
         <v>1406</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="I1" t="s">
         <v>1407</v>
       </c>
-      <c r="I1" s="105" t="s">
+      <c r="J1" t="s">
         <v>1408</v>
-      </c>
-      <c r="J1" s="105" t="s">
-        <v>1409</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>1224</v>
@@ -20566,843 +20563,720 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F23EB1-3679-4E23-8321-27D5D0D4A28E}">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="101" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="98"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="B2" s="99" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C2" s="86">
+        <v>0.7</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="99"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="86">
+        <v>0.3</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="99"/>
+      <c r="B4" s="99" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C4" s="86">
+        <v>0.15</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="99"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="86">
+        <v>0.15</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="99"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="86">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="86">
+        <v>0.15</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="100"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="87">
+        <v>0.15</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="101" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9" s="99" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C9" s="86">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="99"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="86">
+        <v>0.15</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="99"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="86">
+        <v>0.15</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="99"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="86">
+        <v>0.35</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="99"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="86">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="102"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="87">
+        <v>0.15</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="101" t="s">
+        <v>252</v>
+      </c>
+      <c r="B15" s="99" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C15" s="86">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="99"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="86">
+        <v>0.15</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="99"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="86">
+        <v>0.15</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="99"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="86">
+        <v>0.35</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="99"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="86">
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="100"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="87">
+        <v>0.15</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="101" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21" s="99" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C21" s="86">
+        <v>0.15</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>1305</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="90" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B3" s="86">
-        <v>0.7</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="90"/>
-      <c r="B4" s="86">
-        <v>0.3</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="90" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B5" s="86">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="99"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="86">
         <v>0.15</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D22" s="15" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="99"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="86">
+        <v>0.4</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="99"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="86">
+        <v>0.15</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="100"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="87">
+        <v>0.15</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="90"/>
-      <c r="B6" s="86">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="101" t="s">
+        <v>243</v>
+      </c>
+      <c r="B26" s="99" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C26" s="86">
         <v>0.15</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D26" s="15" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="99"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="86">
+        <v>0.15</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="90"/>
-      <c r="B7" s="86">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="99"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="86">
         <v>0.4</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="D28" s="15" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="99"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="86">
+        <v>0.15</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="100"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="87">
+        <v>0.15</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="101" t="s">
+        <v>250</v>
+      </c>
+      <c r="B31" s="99" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C31" s="86">
+        <v>0.1</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="99"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="86">
+        <v>0.15</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="99"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="86">
+        <v>0.15</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="99"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="86">
+        <v>0.35</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="99"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="86">
+        <v>0.1</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="100"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="87">
+        <v>0.15</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="101" t="s">
+        <v>249</v>
+      </c>
+      <c r="B37" s="99" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C37" s="86">
+        <v>0.1</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="99"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="86">
+        <v>0.15</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="99"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="86">
+        <v>0.15</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="99"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="86">
+        <v>0.35</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="99"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="86">
+        <v>0.1</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="100"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="87">
+        <v>0.15</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="101" t="s">
+        <v>244</v>
+      </c>
+      <c r="B43" s="99" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C43" s="86">
+        <v>0.1</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="99"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="86">
+        <v>0.15</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="99"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="86">
+        <v>0.15</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="99"/>
+      <c r="B46" s="99"/>
+      <c r="C46" s="86">
+        <v>0.35</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="99"/>
+      <c r="B47" s="99"/>
+      <c r="C47" s="86">
+        <v>0.1</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="100"/>
+      <c r="B48" s="100"/>
+      <c r="C48" s="87">
+        <v>0.15</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="101" t="s">
+        <v>248</v>
+      </c>
+      <c r="B49" s="99" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C49" s="86">
+        <v>0.1</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="99"/>
+      <c r="B50" s="99"/>
+      <c r="C50" s="86">
+        <v>0.15</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="99"/>
+      <c r="B51" s="99"/>
+      <c r="C51" s="86">
+        <v>0.15</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="99"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="86">
+        <v>0.35</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="99"/>
+      <c r="B53" s="99"/>
+      <c r="C53" s="86">
+        <v>0.1</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="100"/>
+      <c r="B54" s="100"/>
+      <c r="C54" s="87">
+        <v>0.15</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="101" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B55" s="99" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C55" s="86">
+        <v>0.15</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="99"/>
+      <c r="B56" s="99"/>
+      <c r="C56" s="86">
+        <v>0.15</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="99"/>
+      <c r="B57" s="99"/>
+      <c r="C57" s="86">
+        <v>0.4</v>
+      </c>
+      <c r="D57" s="15" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="90"/>
-      <c r="B8" s="86">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="99"/>
+      <c r="B58" s="99"/>
+      <c r="C58" s="86">
         <v>0.15</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="D58" s="15" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="91"/>
-      <c r="B9" s="87">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="100"/>
+      <c r="B59" s="100"/>
+      <c r="C59" s="87">
         <v>0.15</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="D59" s="14" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="101" t="s">
+        <v>247</v>
+      </c>
+      <c r="B60" s="99" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="96" t="s">
-        <v>251</v>
-      </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="98"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="16" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="90" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B12" s="86">
+      <c r="C60" s="86">
         <v>0.1</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="90"/>
-      <c r="B13" s="86">
+      <c r="D60" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="99"/>
+      <c r="B61" s="99"/>
+      <c r="C61" s="86">
         <v>0.15</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="90"/>
-      <c r="B14" s="86">
+      <c r="D61" s="15" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="99"/>
+      <c r="B62" s="99"/>
+      <c r="C62" s="86">
         <v>0.15</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="90"/>
-      <c r="B15" s="86">
+      <c r="D62" s="15" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="99"/>
+      <c r="B63" s="99"/>
+      <c r="C63" s="86">
         <v>0.35</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="90"/>
-      <c r="B16" s="86">
+      <c r="D63" s="15" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="99"/>
+      <c r="B64" s="99"/>
+      <c r="C64" s="86">
         <v>0.1</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="D64" s="15" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="92"/>
-      <c r="B17" s="87">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="100"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="87">
         <v>0.15</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="96" t="s">
-        <v>252</v>
-      </c>
-      <c r="B18" s="97"/>
-      <c r="C18" s="98"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="16" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="90" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B20" s="86">
-        <v>0.1</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="90"/>
-      <c r="B21" s="86">
-        <v>0.15</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="90"/>
-      <c r="B22" s="86">
-        <v>0.15</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="90"/>
-      <c r="B23" s="86">
-        <v>0.35</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="90"/>
-      <c r="B24" s="86">
-        <v>0.1</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="91"/>
-      <c r="B25" s="87">
-        <v>0.15</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="96" t="s">
-        <v>242</v>
-      </c>
-      <c r="B26" s="97"/>
-      <c r="C26" s="98"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="16" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="90" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B28" s="86">
-        <v>0.15</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="90"/>
-      <c r="B29" s="86">
-        <v>0.15</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="90"/>
-      <c r="B30" s="86">
-        <v>0.4</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="90"/>
-      <c r="B31" s="86">
-        <v>0.15</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="91"/>
-      <c r="B32" s="87">
-        <v>0.15</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="96" t="s">
-        <v>243</v>
-      </c>
-      <c r="B33" s="97"/>
-      <c r="C33" s="98"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="16" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="90" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B35" s="86">
-        <v>0.15</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="90"/>
-      <c r="B36" s="86">
-        <v>0.15</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="90"/>
-      <c r="B37" s="86">
-        <v>0.4</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="90"/>
-      <c r="B38" s="86">
-        <v>0.15</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="91"/>
-      <c r="B39" s="87">
-        <v>0.15</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="96" t="s">
-        <v>250</v>
-      </c>
-      <c r="B40" s="97"/>
-      <c r="C40" s="98"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="16" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="90" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B42" s="86">
-        <v>0.1</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="90"/>
-      <c r="B43" s="86">
-        <v>0.15</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="90"/>
-      <c r="B44" s="86">
-        <v>0.15</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="90"/>
-      <c r="B45" s="86">
-        <v>0.35</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" s="90"/>
-      <c r="B46" s="86">
-        <v>0.1</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="91"/>
-      <c r="B47" s="87">
-        <v>0.15</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" s="96" t="s">
-        <v>249</v>
-      </c>
-      <c r="B48" s="97"/>
-      <c r="C48" s="98"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="16" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="90" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B50" s="86">
-        <v>0.1</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="90"/>
-      <c r="B51" s="86">
-        <v>0.15</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" s="90"/>
-      <c r="B52" s="86">
-        <v>0.15</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A53" s="90"/>
-      <c r="B53" s="86">
-        <v>0.35</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" s="90"/>
-      <c r="B54" s="86">
-        <v>0.1</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" s="91"/>
-      <c r="B55" s="87">
-        <v>0.15</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" s="96" t="s">
-        <v>244</v>
-      </c>
-      <c r="B56" s="97"/>
-      <c r="C56" s="98"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57" s="16" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" s="90" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B58" s="86">
-        <v>0.1</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="90"/>
-      <c r="B59" s="86">
-        <v>0.15</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A60" s="90"/>
-      <c r="B60" s="86">
-        <v>0.15</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61" s="90"/>
-      <c r="B61" s="86">
-        <v>0.35</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" s="90"/>
-      <c r="B62" s="86">
-        <v>0.1</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" s="91"/>
-      <c r="B63" s="87">
-        <v>0.15</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" s="96" t="s">
-        <v>248</v>
-      </c>
-      <c r="B64" s="97"/>
-      <c r="C64" s="98"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A65" s="16" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A66" s="90" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B66" s="86">
-        <v>0.1</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A67" s="90"/>
-      <c r="B67" s="86">
-        <v>0.15</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="90"/>
-      <c r="B68" s="86">
-        <v>0.15</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="90"/>
-      <c r="B69" s="86">
-        <v>0.35</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="90"/>
-      <c r="B70" s="86">
-        <v>0.1</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="91"/>
-      <c r="B71" s="87">
-        <v>0.15</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="96" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B72" s="97"/>
-      <c r="C72" s="98"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="16" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="90" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B74" s="86">
-        <v>0.15</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="90"/>
-      <c r="B75" s="86">
-        <v>0.15</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="90"/>
-      <c r="B76" s="86">
-        <v>0.4</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="90"/>
-      <c r="B77" s="86">
-        <v>0.15</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="91"/>
-      <c r="B78" s="87">
-        <v>0.15</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="96" t="s">
-        <v>247</v>
-      </c>
-      <c r="B79" s="97"/>
-      <c r="C79" s="98"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="16" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="90" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B81" s="86">
-        <v>0.1</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="90"/>
-      <c r="B82" s="86">
-        <v>0.15</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="90"/>
-      <c r="B83" s="86">
-        <v>0.15</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="90"/>
-      <c r="B84" s="86">
-        <v>0.35</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="90"/>
-      <c r="B85" s="86">
-        <v>0.1</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="91"/>
-      <c r="B86" s="87">
-        <v>0.15</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>1303</v>
+      <c r="D65" s="14" t="s">
+        <v>1302</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="A64:C64"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21440,32 +21314,32 @@
       <c r="D1" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="E1" s="105" t="s">
+      <c r="E1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="J1" t="s">
         <v>1410</v>
       </c>
-      <c r="F1" s="105" t="s">
-        <v>1398</v>
-      </c>
-      <c r="G1" s="105" t="s">
-        <v>1400</v>
-      </c>
-      <c r="H1" s="105" t="s">
-        <v>1401</v>
-      </c>
-      <c r="I1" s="105" t="s">
-        <v>1402</v>
-      </c>
-      <c r="J1" s="105" t="s">
+      <c r="K1" t="s">
         <v>1411</v>
       </c>
-      <c r="K1" s="105" t="s">
+      <c r="L1" t="s">
         <v>1412</v>
       </c>
-      <c r="L1" s="105" t="s">
+      <c r="M1" t="s">
         <v>1413</v>
-      </c>
-      <c r="M1" s="105" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -23715,11 +23589,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="106" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B1" s="106" t="s">
-        <v>1349</v>
+      <c r="A1" s="95" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B1" s="95" t="s">
+        <v>1348</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -23736,973 +23610,973 @@
       <c r="G1" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="106" t="s">
+      <c r="H1" s="95" t="s">
+        <v>1329</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="95" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="I1" s="105" t="s">
-        <v>1415</v>
-      </c>
-      <c r="J1" s="105" t="s">
-        <v>1416</v>
-      </c>
-      <c r="K1" s="105" t="s">
-        <v>1417</v>
-      </c>
-      <c r="L1" s="105" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="106" t="s">
-        <v>1325</v>
-      </c>
-      <c r="B2" s="105" t="s">
-        <v>1350</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1331</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>1333</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>1332</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>1335</v>
-      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="106"/>
-      <c r="B3" s="105"/>
+      <c r="A3" s="95"/>
+      <c r="B3"/>
       <c r="C3" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>1337</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>1338</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="106"/>
-      <c r="B4" s="105"/>
+      <c r="A4" s="95"/>
+      <c r="B4"/>
       <c r="C4" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H4" s="1">
         <v>3</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>1347</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>1348</v>
-      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="106"/>
-      <c r="B5" s="105"/>
+      <c r="A5" s="95"/>
+      <c r="B5"/>
       <c r="D5" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H5" s="1">
         <v>4</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>1341</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>1342</v>
-      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="106"/>
-      <c r="B6" s="105"/>
+      <c r="A6" s="95"/>
+      <c r="B6"/>
       <c r="D6" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H6" s="1">
         <v>5</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="106"/>
-      <c r="B7" s="105"/>
+      <c r="A7" s="95"/>
+      <c r="B7"/>
       <c r="E7" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H7" s="1">
         <v>8</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="106"/>
-      <c r="B8" s="105"/>
+      <c r="A8" s="95"/>
+      <c r="B8"/>
       <c r="G8" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H8" s="1">
         <v>12</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="106" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B9" s="105" t="s">
-        <v>1351</v>
+      <c r="A9" s="95" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1350</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="106"/>
-      <c r="B10" s="105"/>
+      <c r="A10" s="95"/>
+      <c r="B10"/>
       <c r="C10" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H10" s="1">
         <v>3</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="106"/>
-      <c r="B11" s="105"/>
+      <c r="A11" s="95"/>
+      <c r="B11"/>
       <c r="E11" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H11" s="1">
         <v>6</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>1353</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>1354</v>
-      </c>
       <c r="K11" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="106"/>
-      <c r="B12" s="105"/>
+      <c r="A12" s="95"/>
+      <c r="B12"/>
       <c r="G12" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H12" s="1">
         <v>11</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="106"/>
-      <c r="B13" s="105"/>
+      <c r="A13" s="95"/>
+      <c r="B13"/>
       <c r="G13" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H13" s="1">
         <v>15</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="95" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B14" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="106" t="s">
-        <v>1327</v>
-      </c>
-      <c r="B14" s="105" t="s">
-        <v>1359</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>1360</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>1361</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="106"/>
-      <c r="B15" s="105"/>
+      <c r="A15" s="95"/>
+      <c r="B15"/>
       <c r="C15" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H15" s="1">
         <v>3</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="106"/>
-      <c r="B16" s="105"/>
+      <c r="A16" s="95"/>
+      <c r="B16"/>
       <c r="D16" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H16" s="1">
         <v>4</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>1365</v>
-      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="106"/>
-      <c r="B17" s="105"/>
+      <c r="A17" s="95"/>
+      <c r="B17"/>
       <c r="E17" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H17" s="1">
         <v>6</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="106"/>
-      <c r="B18" s="105"/>
+      <c r="A18" s="95"/>
+      <c r="B18"/>
       <c r="E18" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H18" s="1">
         <v>7</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="106"/>
-      <c r="B19" s="105"/>
+      <c r="A19" s="95"/>
+      <c r="B19"/>
       <c r="E19" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H19" s="1">
         <v>8</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="106"/>
-      <c r="B20" s="105"/>
+      <c r="A20" s="95"/>
+      <c r="B20"/>
       <c r="F20" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H20" s="1">
         <v>10</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="106"/>
-      <c r="B21" s="105"/>
+      <c r="A21" s="95"/>
+      <c r="B21"/>
       <c r="G21" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H21" s="1">
         <v>15</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="106" t="s">
+      <c r="A22" s="95" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B22" t="s">
         <v>1393</v>
       </c>
-      <c r="B22" s="105" t="s">
-        <v>1394</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="106"/>
-      <c r="B23" s="105"/>
+      <c r="A23" s="95"/>
+      <c r="B23"/>
       <c r="C23" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H23" s="1">
         <v>2</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="106"/>
-      <c r="B24" s="105"/>
+      <c r="A24" s="95"/>
+      <c r="B24"/>
       <c r="D24" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H24" s="1">
         <v>4</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="106"/>
-      <c r="B25" s="105"/>
+      <c r="A25" s="95"/>
+      <c r="B25"/>
       <c r="D25" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H25" s="1">
         <v>5</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="106"/>
-      <c r="B26" s="105"/>
+      <c r="A26" s="95"/>
+      <c r="B26"/>
       <c r="E26" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H26" s="1">
         <v>6</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="106"/>
-      <c r="B27" s="105"/>
+      <c r="A27" s="95"/>
+      <c r="B27"/>
       <c r="F27" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H27" s="1">
         <v>10</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="106" t="s">
-        <v>1328</v>
-      </c>
-      <c r="B28" s="105" t="s">
-        <v>1374</v>
+      <c r="A28" s="95" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1373</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H28" s="1">
         <v>2</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="106"/>
-      <c r="B29" s="105"/>
+      <c r="A29" s="95"/>
+      <c r="B29"/>
       <c r="C29" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H29" s="1">
         <v>3</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="106"/>
-      <c r="B30" s="105"/>
+      <c r="A30" s="95"/>
+      <c r="B30"/>
       <c r="D30" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H30" s="1">
         <v>4</v>
       </c>
       <c r="I30" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>1375</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>1376</v>
-      </c>
       <c r="K30" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="106"/>
-      <c r="B31" s="105"/>
+      <c r="A31" s="95"/>
+      <c r="B31"/>
       <c r="D31" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H31" s="1">
         <v>5</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="106"/>
-      <c r="B32" s="105"/>
+      <c r="A32" s="95"/>
+      <c r="B32"/>
       <c r="E32" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H32" s="1">
         <v>6</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="106"/>
-      <c r="B33" s="105"/>
+      <c r="A33" s="95"/>
+      <c r="B33"/>
       <c r="E33" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H33" s="1">
         <v>7</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="106"/>
-      <c r="B34" s="105"/>
+      <c r="A34" s="95"/>
+      <c r="B34"/>
       <c r="F34" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H34" s="1">
         <v>10</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A35" s="106"/>
-      <c r="B35" s="105"/>
+      <c r="A35" s="95"/>
+      <c r="B35"/>
       <c r="G35" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H35" s="1">
         <v>11</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="106" t="s">
-        <v>1329</v>
-      </c>
-      <c r="B36" s="105" t="s">
-        <v>1384</v>
+      <c r="A36" s="95" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1383</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H36" s="1">
         <v>1</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A37" s="106"/>
-      <c r="B37" s="105"/>
+      <c r="A37" s="95"/>
+      <c r="B37"/>
       <c r="C37" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H37" s="1">
         <v>2</v>
       </c>
       <c r="I37" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="L37" s="1" t="s">
         <v>1337</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>1386</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>1387</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>1338</v>
-      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A38" s="106"/>
-      <c r="B38" s="105"/>
+      <c r="A38" s="95"/>
+      <c r="B38"/>
       <c r="C38" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H38" s="1">
         <v>2</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" s="106"/>
-      <c r="B39" s="105"/>
+      <c r="A39" s="95"/>
+      <c r="B39"/>
       <c r="C39" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H39" s="1">
         <v>3</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="106"/>
-      <c r="B40" s="105"/>
+      <c r="A40" s="95"/>
+      <c r="B40"/>
       <c r="D40" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H40" s="1">
         <v>4</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A41" s="106"/>
-      <c r="B41" s="105"/>
+      <c r="A41" s="95"/>
+      <c r="B41"/>
       <c r="D41" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H41" s="1">
         <v>5</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A42" s="106"/>
-      <c r="B42" s="105"/>
+      <c r="A42" s="95"/>
+      <c r="B42"/>
       <c r="E42" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H42" s="1">
         <v>6</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A43" s="106"/>
-      <c r="B43" s="105"/>
+      <c r="A43" s="95"/>
+      <c r="B43"/>
       <c r="E43" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H43" s="1">
         <v>7</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A44" s="106"/>
-      <c r="B44" s="105"/>
+      <c r="A44" s="95"/>
+      <c r="B44"/>
       <c r="F44" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H44" s="1">
         <v>10</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A45" s="106"/>
-      <c r="B45" s="105"/>
+      <c r="A45" s="95"/>
+      <c r="B45"/>
       <c r="G45" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H45" s="1">
         <v>11</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A46" s="106"/>
-      <c r="B46" s="105"/>
+      <c r="A46" s="95"/>
+      <c r="B46"/>
       <c r="G46" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H46" s="1">
         <v>12</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="G47" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H47" s="1">
         <v>14</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
   </sheetData>
@@ -24716,7 +24590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4887234C-48FC-4F3A-A9CC-7F09DF7DF30F}">
   <dimension ref="A1:T86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M72" sqref="M72"/>
     </sheetView>
   </sheetViews>
@@ -24731,25 +24605,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="94" t="s">
         <v>228</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="109" t="s">
+      <c r="E1" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="96" t="s">
         <v>100</v>
       </c>
       <c r="H1" s="11" t="s">
@@ -24764,32 +24638,32 @@
       <c r="K1" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="108" t="s">
+      <c r="L1" s="97" t="s">
+        <v>1422</v>
+      </c>
+      <c r="M1" s="97" t="s">
         <v>1423</v>
       </c>
-      <c r="M1" s="108" t="s">
+      <c r="N1" s="97" t="s">
         <v>1424</v>
       </c>
-      <c r="N1" s="108" t="s">
+      <c r="O1" s="97" t="s">
         <v>1425</v>
       </c>
-      <c r="O1" s="108" t="s">
+      <c r="P1" s="97" t="s">
         <v>1426</v>
       </c>
-      <c r="P1" s="108" t="s">
-        <v>1427</v>
-      </c>
-      <c r="Q1" s="108" t="s">
+      <c r="Q1" s="97" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R1" s="97" t="s">
         <v>1419</v>
       </c>
-      <c r="R1" s="108" t="s">
+      <c r="S1" s="97" t="s">
         <v>1420</v>
       </c>
-      <c r="S1" s="108" t="s">
+      <c r="T1" s="97" t="s">
         <v>1421</v>
-      </c>
-      <c r="T1" s="108" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
@@ -24799,7 +24673,7 @@
       <c r="B2" s="13">
         <v>1</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="94" t="s">
         <v>229</v>
       </c>
       <c r="D2" s="5">
@@ -24853,7 +24727,7 @@
       <c r="B3" s="15">
         <v>3</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="94" t="s">
         <v>229</v>
       </c>
       <c r="D3" s="9">
@@ -24907,7 +24781,7 @@
       <c r="B4" s="15">
         <v>15</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="94" t="s">
         <v>229</v>
       </c>
       <c r="D4" s="9">
@@ -24956,7 +24830,7 @@
       <c r="B5" s="15">
         <v>17</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="94" t="s">
         <v>229</v>
       </c>
       <c r="D5" s="9">
@@ -25002,7 +24876,7 @@
       <c r="B6" s="15">
         <v>35</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="94" t="s">
         <v>229</v>
       </c>
       <c r="D6" s="9">
@@ -25045,7 +24919,7 @@
       <c r="B7" s="14">
         <v>25</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="94" t="s">
         <v>229</v>
       </c>
       <c r="D7" s="10">
@@ -25097,7 +24971,7 @@
       <c r="B8" s="13">
         <v>13</v>
       </c>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="94" t="s">
         <v>230</v>
       </c>
       <c r="D8" s="5">
@@ -25149,7 +25023,7 @@
       <c r="B9" s="15">
         <v>17</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="94" t="s">
         <v>230</v>
       </c>
       <c r="D9" s="9">
@@ -25198,7 +25072,7 @@
       <c r="B10" s="14">
         <v>38</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="94" t="s">
         <v>230</v>
       </c>
       <c r="D10" s="10">
@@ -25248,7 +25122,7 @@
       <c r="B11" s="13">
         <v>4</v>
       </c>
-      <c r="C11" s="104" t="s">
+      <c r="C11" s="94" t="s">
         <v>231</v>
       </c>
       <c r="D11" s="5">
@@ -25302,7 +25176,7 @@
       <c r="B12" s="15">
         <v>22</v>
       </c>
-      <c r="C12" s="104" t="s">
+      <c r="C12" s="94" t="s">
         <v>231</v>
       </c>
       <c r="D12" s="9">
@@ -25351,7 +25225,7 @@
       <c r="B13" s="15">
         <v>27</v>
       </c>
-      <c r="C13" s="104" t="s">
+      <c r="C13" s="94" t="s">
         <v>231</v>
       </c>
       <c r="D13" s="9">
@@ -25400,7 +25274,7 @@
       <c r="B14" s="14">
         <v>34</v>
       </c>
-      <c r="C14" s="104" t="s">
+      <c r="C14" s="94" t="s">
         <v>231</v>
       </c>
       <c r="D14" s="10">
@@ -25450,7 +25324,7 @@
       <c r="B15" s="13">
         <v>2</v>
       </c>
-      <c r="C15" s="104" t="s">
+      <c r="C15" s="94" t="s">
         <v>232</v>
       </c>
       <c r="D15" s="5">
@@ -25504,7 +25378,7 @@
       <c r="B16" s="15">
         <v>24</v>
       </c>
-      <c r="C16" s="104" t="s">
+      <c r="C16" s="94" t="s">
         <v>232</v>
       </c>
       <c r="D16" s="9">
@@ -25550,7 +25424,7 @@
       <c r="B17" s="14">
         <v>38</v>
       </c>
-      <c r="C17" s="104" t="s">
+      <c r="C17" s="94" t="s">
         <v>232</v>
       </c>
       <c r="D17" s="10">
@@ -25600,7 +25474,7 @@
       <c r="B18" s="13">
         <v>5</v>
       </c>
-      <c r="C18" s="104" t="s">
+      <c r="C18" s="94" t="s">
         <v>233</v>
       </c>
       <c r="D18" s="5">
@@ -25652,7 +25526,7 @@
       <c r="B19" s="15">
         <v>18</v>
       </c>
-      <c r="C19" s="104" t="s">
+      <c r="C19" s="94" t="s">
         <v>233</v>
       </c>
       <c r="D19" s="9">
@@ -25704,7 +25578,7 @@
       <c r="B20" s="15">
         <v>28</v>
       </c>
-      <c r="C20" s="104" t="s">
+      <c r="C20" s="94" t="s">
         <v>233</v>
       </c>
       <c r="D20" s="9">
@@ -25753,7 +25627,7 @@
       <c r="B21" s="14">
         <v>32</v>
       </c>
-      <c r="C21" s="104" t="s">
+      <c r="C21" s="94" t="s">
         <v>233</v>
       </c>
       <c r="D21" s="10">
@@ -25801,7 +25675,7 @@
       <c r="B22" s="13">
         <v>11</v>
       </c>
-      <c r="C22" s="104" t="s">
+      <c r="C22" s="94" t="s">
         <v>163</v>
       </c>
       <c r="D22" s="5">
@@ -25855,7 +25729,7 @@
       <c r="B23" s="15">
         <v>28</v>
       </c>
-      <c r="C23" s="104" t="s">
+      <c r="C23" s="94" t="s">
         <v>163</v>
       </c>
       <c r="D23" s="9">
@@ -25904,7 +25778,7 @@
       <c r="B24" s="15">
         <v>26</v>
       </c>
-      <c r="C24" s="104" t="s">
+      <c r="C24" s="94" t="s">
         <v>163</v>
       </c>
       <c r="D24" s="9">
@@ -25959,7 +25833,7 @@
       <c r="B25" s="14">
         <v>34</v>
       </c>
-      <c r="C25" s="104" t="s">
+      <c r="C25" s="94" t="s">
         <v>163</v>
       </c>
       <c r="D25" s="10">
@@ -26009,7 +25883,7 @@
       <c r="B26" s="13">
         <v>10</v>
       </c>
-      <c r="C26" s="104" t="s">
+      <c r="C26" s="94" t="s">
         <v>234</v>
       </c>
       <c r="D26" s="5">
@@ -26059,7 +25933,7 @@
       <c r="B27" s="15">
         <v>19</v>
       </c>
-      <c r="C27" s="104" t="s">
+      <c r="C27" s="94" t="s">
         <v>234</v>
       </c>
       <c r="D27" s="9">
@@ -26105,7 +25979,7 @@
       <c r="B28" s="14">
         <v>24</v>
       </c>
-      <c r="C28" s="104" t="s">
+      <c r="C28" s="94" t="s">
         <v>234</v>
       </c>
       <c r="D28" s="10">
@@ -26157,7 +26031,7 @@
       <c r="B29" s="13">
         <v>12</v>
       </c>
-      <c r="C29" s="104" t="s">
+      <c r="C29" s="94" t="s">
         <v>235</v>
       </c>
       <c r="D29" s="5">
@@ -26213,7 +26087,7 @@
       <c r="B30" s="15">
         <v>16</v>
       </c>
-      <c r="C30" s="104" t="s">
+      <c r="C30" s="94" t="s">
         <v>235</v>
       </c>
       <c r="D30" s="9">
@@ -26265,7 +26139,7 @@
       <c r="B31" s="15">
         <v>25</v>
       </c>
-      <c r="C31" s="104" t="s">
+      <c r="C31" s="94" t="s">
         <v>235</v>
       </c>
       <c r="D31" s="9">
@@ -26317,7 +26191,7 @@
       <c r="B32" s="14">
         <v>30</v>
       </c>
-      <c r="C32" s="104" t="s">
+      <c r="C32" s="94" t="s">
         <v>235</v>
       </c>
       <c r="D32" s="10">
@@ -26367,7 +26241,7 @@
       <c r="B33" s="13">
         <v>21</v>
       </c>
-      <c r="C33" s="104" t="s">
+      <c r="C33" s="94" t="s">
         <v>174</v>
       </c>
       <c r="D33" s="5">
@@ -26417,7 +26291,7 @@
       <c r="B34" s="15">
         <v>22</v>
       </c>
-      <c r="C34" s="104" t="s">
+      <c r="C34" s="94" t="s">
         <v>174</v>
       </c>
       <c r="D34" s="9">
@@ -26463,7 +26337,7 @@
       <c r="B35" s="14">
         <v>32</v>
       </c>
-      <c r="C35" s="104" t="s">
+      <c r="C35" s="94" t="s">
         <v>174</v>
       </c>
       <c r="D35" s="10">
@@ -26515,7 +26389,7 @@
       <c r="B36" s="13">
         <v>19</v>
       </c>
-      <c r="C36" s="104" t="s">
+      <c r="C36" s="94" t="s">
         <v>177</v>
       </c>
       <c r="D36" s="5">
@@ -26565,7 +26439,7 @@
       <c r="B37" s="15">
         <v>30</v>
       </c>
-      <c r="C37" s="104" t="s">
+      <c r="C37" s="94" t="s">
         <v>177</v>
       </c>
       <c r="D37" s="9">
@@ -26614,7 +26488,7 @@
       <c r="B38" s="15">
         <v>40</v>
       </c>
-      <c r="C38" s="104" t="s">
+      <c r="C38" s="94" t="s">
         <v>177</v>
       </c>
       <c r="D38" s="9">
@@ -26660,7 +26534,7 @@
       <c r="B39" s="14">
         <v>35</v>
       </c>
-      <c r="C39" s="104" t="s">
+      <c r="C39" s="94" t="s">
         <v>177</v>
       </c>
       <c r="D39" s="10">
@@ -27798,7 +27672,7 @@
       <c r="B60" s="13">
         <v>40</v>
       </c>
-      <c r="C60" s="104" t="s">
+      <c r="C60" s="94" t="s">
         <v>201</v>
       </c>
       <c r="D60" s="5">
@@ -27850,7 +27724,7 @@
       <c r="B61" s="15">
         <v>45</v>
       </c>
-      <c r="C61" s="104" t="s">
+      <c r="C61" s="94" t="s">
         <v>201</v>
       </c>
       <c r="D61" s="9">
@@ -27899,7 +27773,7 @@
       <c r="B62" s="15">
         <v>35</v>
       </c>
-      <c r="C62" s="104" t="s">
+      <c r="C62" s="94" t="s">
         <v>201</v>
       </c>
       <c r="D62" s="9">
@@ -27948,7 +27822,7 @@
       <c r="B63" s="15">
         <v>33</v>
       </c>
-      <c r="C63" s="104" t="s">
+      <c r="C63" s="94" t="s">
         <v>201</v>
       </c>
       <c r="D63" s="9">
@@ -27997,7 +27871,7 @@
       <c r="B64" s="14">
         <v>50</v>
       </c>
-      <c r="C64" s="104" t="s">
+      <c r="C64" s="94" t="s">
         <v>201</v>
       </c>
       <c r="D64" s="10">
@@ -28531,7 +28405,7 @@
       <c r="B74" s="13">
         <v>80</v>
       </c>
-      <c r="C74" s="104" t="s">
+      <c r="C74" s="94" t="s">
         <v>238</v>
       </c>
       <c r="D74" s="5">
@@ -28585,7 +28459,7 @@
       <c r="B75" s="15">
         <v>60</v>
       </c>
-      <c r="C75" s="104" t="s">
+      <c r="C75" s="94" t="s">
         <v>238</v>
       </c>
       <c r="D75" s="9">
@@ -28636,7 +28510,7 @@
       <c r="B76" s="15">
         <v>60</v>
       </c>
-      <c r="C76" s="104" t="s">
+      <c r="C76" s="94" t="s">
         <v>238</v>
       </c>
       <c r="D76" s="9">
@@ -28687,7 +28561,7 @@
       <c r="B77" s="15">
         <v>60</v>
       </c>
-      <c r="C77" s="104" t="s">
+      <c r="C77" s="94" t="s">
         <v>238</v>
       </c>
       <c r="D77" s="9">
@@ -28738,7 +28612,7 @@
       <c r="B78" s="14">
         <v>65</v>
       </c>
-      <c r="C78" s="104" t="s">
+      <c r="C78" s="94" t="s">
         <v>238</v>
       </c>
       <c r="D78" s="10">
